--- a/Desafio1_GroupSoftware/Desafio1_GroupSoftware/Documentos/Preenchimento_Dados.xlsx
+++ b/Desafio1_GroupSoftware/Desafio1_GroupSoftware/Documentos/Preenchimento_Dados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athos.andrade\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athos\Documents\GitHub\Desafio1-GroupSoftware\Desafio1_GroupSoftware\Desafio1_GroupSoftware\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{149FB29B-D87F-4723-8B22-CEB7861CECCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FA50BC-5870-494E-AFF5-5C801958718F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{0640A415-2437-42EC-BF28-A00DC4AA467A}"/>
+    <workbookView xWindow="-28920" yWindow="-10875" windowWidth="29040" windowHeight="15720" tabRatio="574" xr2:uid="{0640A415-2437-42EC-BF28-A00DC4AA467A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -77,19 +77,19 @@
     <t>rua teste 4</t>
   </si>
   <si>
-    <t>Cristiano 1</t>
-  </si>
-  <si>
-    <t>Thamara 2</t>
-  </si>
-  <si>
-    <t>Ronaldo 3</t>
-  </si>
-  <si>
-    <t>Rodrigues 4</t>
-  </si>
-  <si>
     <t>04931166059</t>
+  </si>
+  <si>
+    <t>Cristiano Excel</t>
+  </si>
+  <si>
+    <t>Thamara Excel</t>
+  </si>
+  <si>
+    <t>Ronaldo Excel</t>
+  </si>
+  <si>
+    <t>Rodrigues Excel</t>
   </si>
 </sst>
 </file>
@@ -481,21 +481,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB92A24-D43F-464F-8507-5886B0B30DFA}">
   <dimension ref="A1:K5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20.42578125" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" style="1" customWidth="1"/>
-    <col min="6" max="11" width="9.140625" style="4"/>
+    <col min="1" max="1" width="20.453125" customWidth="1"/>
+    <col min="2" max="2" width="19.54296875" customWidth="1"/>
+    <col min="3" max="3" width="21.26953125" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" style="7" customWidth="1"/>
+    <col min="5" max="5" width="34.1796875" style="1" customWidth="1"/>
+    <col min="6" max="11" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -512,9 +512,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
@@ -526,12 +526,12 @@
         <v>6</v>
       </c>
       <c r="E2" s="1">
-        <v>99999999999</v>
+        <v>44444444444</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
@@ -546,9 +546,9 @@
         <v>33333333333</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>5</v>
@@ -563,9 +563,9 @@
         <v>22222222222</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>5</v>
@@ -574,7 +574,7 @@
         <v>12</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1">
         <v>11111111111</v>

--- a/Desafio1_GroupSoftware/Desafio1_GroupSoftware/Documentos/Preenchimento_Dados.xlsx
+++ b/Desafio1_GroupSoftware/Desafio1_GroupSoftware/Documentos/Preenchimento_Dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athos\Documents\GitHub\Desafio1-GroupSoftware\Desafio1_GroupSoftware\Desafio1_GroupSoftware\Documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FA50BC-5870-494E-AFF5-5C801958718F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6C5C82-6F65-4D61-908C-A494A417A1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-10875" windowWidth="29040" windowHeight="15720" tabRatio="574" xr2:uid="{0640A415-2437-42EC-BF28-A00DC4AA467A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>TELEFONE</t>
   </si>
@@ -80,16 +80,25 @@
     <t>04931166059</t>
   </si>
   <si>
-    <t>Cristiano Excel</t>
-  </si>
-  <si>
-    <t>Thamara Excel</t>
-  </si>
-  <si>
-    <t>Ronaldo Excel</t>
-  </si>
-  <si>
-    <t>Rodrigues Excel</t>
+    <t>Empresa Excel 1</t>
+  </si>
+  <si>
+    <t>Empresa Excel 2</t>
+  </si>
+  <si>
+    <t>Empresa Excel 3</t>
+  </si>
+  <si>
+    <t>Empresa Excel 4</t>
+  </si>
+  <si>
+    <t>Empresa Excel 5</t>
+  </si>
+  <si>
+    <t>rua teste 5</t>
+  </si>
+  <si>
+    <t>348.553.420-09</t>
   </si>
 </sst>
 </file>
@@ -479,10 +488,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DB92A24-D43F-464F-8507-5886B0B30DFA}">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -526,7 +535,7 @@
         <v>6</v>
       </c>
       <c r="E2" s="1">
-        <v>44444444444</v>
+        <v>11111111111</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -543,7 +552,7 @@
         <v>7</v>
       </c>
       <c r="E3" s="1">
-        <v>33333333333</v>
+        <v>22222222222</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -560,7 +569,7 @@
         <v>8</v>
       </c>
       <c r="E4" s="1">
-        <v>22222222222</v>
+        <v>33333333333</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -577,7 +586,24 @@
         <v>13</v>
       </c>
       <c r="E5" s="1">
-        <v>11111111111</v>
+        <v>44444444444</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="1">
+        <v>55555555555</v>
       </c>
     </row>
   </sheetData>
@@ -600,8 +626,9 @@
     <hyperlink ref="B5" r:id="rId2" xr:uid="{73CBB6DE-C618-41DC-9581-87F7FAA7DEF5}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{87096103-E104-4A0C-842E-BBB3A3F5CACB}"/>
     <hyperlink ref="B3" r:id="rId4" xr:uid="{C2F943D6-AE6A-43E1-ABA3-9397ABED7632}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{98907207-E4B8-4799-A788-EF816AE9C279}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>